--- a/biology/Zoologie/Anolis_bremeri/Anolis_bremeri.xlsx
+++ b/biology/Zoologie/Anolis_bremeri/Anolis_bremeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis bremeri est une espèce de sauriens de la famille des Dactyloidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis bremeri est une espèce de sauriens de la famille des Dactyloidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans la province de Pinar del Río et dans l'Île de la Jeunesse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans la province de Pinar del Río et dans l'Île de la Jeunesse.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (17 décembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (17 décembre 2013) :
 Anolis bremeri bremeri Barbour, 1914
 Anolis bremeri insulaepinorum Garrido, 1972</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Lewis Bremer (1874–1959)[3]. La sous-espèce Anolis bremeri insulaepinorum est nommée en référence au lieu de sa découverte, l'Île de la Jeunesse, autrefois nommée l'île des Pins.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Lewis Bremer (1874–1959). La sous-espèce Anolis bremeri insulaepinorum est nommée en référence au lieu de sa découverte, l'Île de la Jeunesse, autrefois nommée l'île des Pins.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbour, 1914 : A Contribution to the Zoögeography of the West Indies, with Especial Reference to Amphibians and Reptiles. Memoirs of the Museum of Comparative Zoölogy, vol. 44, no 2, p. 205-359 (texte intégral).
 Garrido, 1972 : Anolis bremeri Barbour (Lacertilia: Iguanidae) en el occidente de Cuba e Isla de Pinos. Caribbean Journal of Science, vol. 12, no 1/2, p. 59-77.</t>
